--- a/Buprenorphine providers and patients.xlsx
+++ b/Buprenorphine providers and patients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tylim\Massachusetts Institute of Technology\TEAMS FDA Opioid modeling team - Opioid Model\Papers and conferences\Bup receipt vs bup providers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partnershealthcare.sharepoint.com/sites/FDAOpioidmodelingteam/Shared Documents/Opioid Model/GitHub/BupTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EBEBD7-D749-421B-9E6D-85F4B277A034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{60EBEBD7-D749-421B-9E6D-85F4B277A034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE168565-507F-4CD9-AF34-D80D90A96B3E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{9C051F71-1449-40A2-AC00-8BA1BC77701A}"/>
+    <workbookView xWindow="38280" yWindow="-375" windowWidth="18240" windowHeight="28440" xr2:uid="{9C051F71-1449-40A2-AC00-8BA1BC77701A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Nationally estimated number of patients with a dispensed prescription for buprenorphine from U.S. outpatient retail pharmacies from 2003 through 2019</t>
-  </si>
-  <si>
     <t>Calendar Year</t>
   </si>
   <si>
@@ -53,14 +50,17 @@
   <si>
     <t>Total buprenorphine-waivered providers</t>
   </si>
+  <si>
+    <t>Nationally estimated number of patients with a dispensed prescription for buprenorphine from U.S. outpatient retail pharmacies from 2003 through 20021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -124,17 +124,16 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -473,82 +472,82 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" style="8" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" style="7" customWidth="1"/>
     <col min="2" max="5" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="19" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6">
+    <row r="1" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5">
         <v>2003</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="5">
         <v>2004</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="5">
         <v>2005</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="5">
         <v>2006</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="5">
         <v>2007</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="5">
         <v>2008</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>2009</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="5">
         <v>2010</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="5">
         <v>2011</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="5">
         <v>2012</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="5">
         <v>2013</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="5">
         <v>2014</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="5">
         <v>2015</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="5">
         <v>2016</v>
       </c>
-      <c r="P1" s="7">
+      <c r="P1" s="6">
         <v>2017</v>
       </c>
-      <c r="Q1" s="7">
+      <c r="Q1" s="6">
         <v>2018</v>
       </c>
-      <c r="R1" s="7">
+      <c r="R1" s="6">
         <v>2019</v>
       </c>
-      <c r="S1" s="7">
+      <c r="S1" s="6">
         <v>2020</v>
       </c>
-      <c r="T1" s="7">
+      <c r="T1" s="6">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
+    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>19026</v>
@@ -608,256 +607,256 @@
         <v>1440878</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1800</v>
+      </c>
+      <c r="C5">
+        <v>3256</v>
+      </c>
+      <c r="D5">
+        <v>5484</v>
+      </c>
+      <c r="E5">
+        <v>8555.5</v>
+      </c>
+      <c r="F5">
+        <v>8602.5</v>
+      </c>
+      <c r="G5">
+        <v>11754.666666666666</v>
+      </c>
+      <c r="H5">
+        <v>12288.5</v>
+      </c>
+      <c r="I5">
+        <v>13504.5</v>
+      </c>
+      <c r="J5">
+        <v>14831.5</v>
+      </c>
+      <c r="K5">
+        <v>16095</v>
+      </c>
+      <c r="L5">
+        <v>16777</v>
+      </c>
+      <c r="M5">
+        <v>18086.333333333332</v>
+      </c>
+      <c r="N5">
+        <v>21598.611761579425</v>
+      </c>
+      <c r="O5">
+        <v>25295.422387459261</v>
+      </c>
+      <c r="P5">
+        <v>31072</v>
+      </c>
+      <c r="Q5">
+        <v>40813</v>
+      </c>
+      <c r="R5">
+        <v>55060</v>
+      </c>
+      <c r="S5">
+        <v>67558</v>
+      </c>
+      <c r="T5">
+        <v>80895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
-        <v>2052</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3256</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5484</v>
-      </c>
-      <c r="E5" s="4">
-        <v>8555.5</v>
-      </c>
-      <c r="F5" s="4">
-        <v>8602.5</v>
-      </c>
-      <c r="G5" s="4">
-        <v>11754.666666666666</v>
-      </c>
-      <c r="H5" s="4">
-        <v>12288.5</v>
-      </c>
-      <c r="I5" s="4">
-        <v>13504.5</v>
-      </c>
-      <c r="J5" s="4">
-        <v>14831.5</v>
-      </c>
-      <c r="K5" s="4">
-        <v>16095</v>
-      </c>
-      <c r="L5" s="4">
-        <v>16777</v>
-      </c>
-      <c r="M5" s="4">
-        <v>18086.333333333332</v>
-      </c>
-      <c r="N5" s="4">
-        <v>22117.880531588173</v>
-      </c>
-      <c r="O5" s="4">
-        <v>25402.563305020649</v>
-      </c>
-      <c r="P5" s="4">
-        <v>29811</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>40000</v>
-      </c>
-      <c r="R5" s="4">
-        <v>64000</v>
-      </c>
-      <c r="S5" s="4">
-        <v>67558</v>
-      </c>
-      <c r="T5" s="4">
-        <v>80895</v>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2034.5</v>
+      </c>
+      <c r="G6">
+        <v>2610.6666666666665</v>
+      </c>
+      <c r="H6">
+        <v>3529</v>
+      </c>
+      <c r="I6">
+        <v>4519</v>
+      </c>
+      <c r="J6">
+        <v>5316.5</v>
+      </c>
+      <c r="K6">
+        <v>6103</v>
+      </c>
+      <c r="L6">
+        <v>6852</v>
+      </c>
+      <c r="M6">
+        <v>8354.6666666666661</v>
+      </c>
+      <c r="N6">
+        <v>9388.3882384205735</v>
+      </c>
+      <c r="O6">
+        <v>7126.3792456964102</v>
+      </c>
+      <c r="P6">
+        <v>9101</v>
+      </c>
+      <c r="Q6">
+        <v>11053</v>
+      </c>
+      <c r="R6">
+        <v>13435</v>
+      </c>
+      <c r="S6">
+        <v>20069</v>
+      </c>
+      <c r="T6">
+        <v>25452</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2034.5</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2610.6666666666665</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3529</v>
-      </c>
-      <c r="I6" s="4">
-        <v>4519</v>
-      </c>
-      <c r="J6" s="4">
-        <v>5316.5</v>
-      </c>
-      <c r="K6" s="4">
-        <v>6103</v>
-      </c>
-      <c r="L6" s="4">
-        <v>6852</v>
-      </c>
-      <c r="M6" s="4">
-        <v>8354.6666666666661</v>
-      </c>
-      <c r="N6" s="4">
-        <v>8869.1194684118273</v>
-      </c>
-      <c r="O6" s="4">
-        <v>7125.1575544667103</v>
-      </c>
-      <c r="P6" s="4">
-        <v>8528</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>11000</v>
-      </c>
-      <c r="R6" s="4">
-        <v>13400</v>
-      </c>
-      <c r="S6" s="4">
-        <v>20069</v>
-      </c>
-      <c r="T6" s="4">
-        <v>25452</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>3003.2791405126368</v>
-      </c>
-      <c r="P7" s="4">
-        <v>3698</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>4500</v>
-      </c>
-      <c r="R7" s="4">
-        <v>5220</v>
-      </c>
-      <c r="S7" s="4">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>3109.1983668443181</v>
+      </c>
+      <c r="P7">
+        <v>4010</v>
+      </c>
+      <c r="Q7">
+        <v>4772</v>
+      </c>
+      <c r="R7">
+        <v>5849</v>
+      </c>
+      <c r="S7">
         <v>6596</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7">
         <v>8029</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2051.75</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="A8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1800</v>
+      </c>
+      <c r="C8">
         <v>3256</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>5484</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>8555.5</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>10637</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8">
         <v>14365.333333333332</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8">
         <v>15817.5</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8">
         <v>18023.5</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8">
         <v>20148</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8">
         <v>22198</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8">
         <v>23629</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8">
         <v>26441</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8">
         <v>30987</v>
       </c>
-      <c r="O8" s="4">
-        <v>35531</v>
-      </c>
-      <c r="P8" s="4">
-        <v>42037</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>55500</v>
-      </c>
-      <c r="R8" s="4">
-        <v>82620</v>
-      </c>
-      <c r="S8" s="4">
+      <c r="O8">
+        <v>35530.999999999985</v>
+      </c>
+      <c r="P8">
+        <v>44183</v>
+      </c>
+      <c r="Q8">
+        <v>56638</v>
+      </c>
+      <c r="R8">
+        <v>74344</v>
+      </c>
+      <c r="S8">
         <v>94223</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8">
         <v>114376</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -866,6 +865,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d1680238-2266-4ab1-9ebd-8eb4f05a8cbc" xsi:nil="true"/>
@@ -874,15 +882,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1128,20 +1127,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B76FEE5-17AF-4D6A-B9E3-E18B580AE95D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCB3E185-F0E9-4F77-AF56-8E12CEB33A3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="d1680238-2266-4ab1-9ebd-8eb4f05a8cbc"/>
     <ds:schemaRef ds:uri="12e73323-2992-4b61-9f89-f2ff99442528"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B76FEE5-17AF-4D6A-B9E3-E18B580AE95D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
